--- a/tradept/Excel/Localization/english/D道具装备词条表_ItemPrefixs_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具装备词条表_ItemPrefixs_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A12E9C-E4A7-4307-A475-CD4FE2694F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE6D0D-B741-42DA-9A70-42358701C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="793">
   <si>
     <t>词条ID_AffixID</t>
   </si>
@@ -2198,9 +2198,6 @@
     <t>Forjado pelos Deuses</t>
   </si>
   <si>
-    <t>无情的</t>
-  </si>
-  <si>
     <t>Penetrante</t>
   </si>
   <si>
@@ -2376,6 +2373,45 @@
   </si>
   <si>
     <t>Absorvente</t>
+  </si>
+  <si>
+    <t>残忍的</t>
+  </si>
+  <si>
+    <t>NEW至尊古老魔杖</t>
+  </si>
+  <si>
+    <t>NEW至尊雷电法杖</t>
+  </si>
+  <si>
+    <t>NEW至尊魔焰之杖</t>
+  </si>
+  <si>
+    <t>NEW至尊连环闪电法杖</t>
+  </si>
+  <si>
+    <t>NEW至尊死亡魔杖</t>
+  </si>
+  <si>
+    <t>NEW至尊传说繁花怒放</t>
+  </si>
+  <si>
+    <t>NEW至尊巨人秘宝风暴宝珠</t>
+  </si>
+  <si>
+    <t>NEW至尊神戒巨龙之力</t>
+  </si>
+  <si>
+    <t>NEW至尊神戒雄鹰之怒</t>
+  </si>
+  <si>
+    <t>NEW至尊封印极寒之珠</t>
+  </si>
+  <si>
+    <t>NEW至尊龙骨项链</t>
+  </si>
+  <si>
+    <t>NEW至尊狂沙核心</t>
   </si>
 </sst>
 </file>
@@ -2769,15 +2805,17 @@
   <dimension ref="A1:C510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:B510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6313,7 +6351,7 @@
         <v>399</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>400</v>
@@ -6324,7 +6362,7 @@
         <v>401</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>400</v>
@@ -6335,7 +6373,7 @@
         <v>402</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>400</v>
@@ -6346,7 +6384,7 @@
         <v>403</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>400</v>
@@ -6404,7 +6442,7 @@
         <v>410</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6415,7 +6453,7 @@
         <v>410</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6426,7 +6464,7 @@
         <v>410</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6437,7 +6475,7 @@
         <v>410</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6448,7 +6486,7 @@
         <v>415</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6459,7 +6497,7 @@
         <v>415</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6470,7 +6508,7 @@
         <v>415</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6481,7 +6519,7 @@
         <v>415</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6536,7 +6574,7 @@
         <v>425</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6547,7 +6585,7 @@
         <v>425</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6558,7 +6596,7 @@
         <v>425</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6569,7 +6607,7 @@
         <v>425</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6624,7 +6662,7 @@
         <v>435</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6635,7 +6673,7 @@
         <v>437</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6646,7 +6684,7 @@
         <v>439</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6657,7 +6695,7 @@
         <v>441</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6668,7 +6706,7 @@
         <v>443</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6679,7 +6717,7 @@
         <v>445</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6690,7 +6728,7 @@
         <v>447</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6701,7 +6739,7 @@
         <v>449</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6712,7 +6750,7 @@
         <v>451</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6723,7 +6761,7 @@
         <v>453</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6734,7 +6772,7 @@
         <v>455</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6745,7 +6783,7 @@
         <v>457</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6756,7 +6794,7 @@
         <v>459</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6767,7 +6805,7 @@
         <v>461</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6778,7 +6816,7 @@
         <v>463</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6789,7 +6827,7 @@
         <v>465</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6800,7 +6838,7 @@
         <v>467</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6811,7 +6849,7 @@
         <v>469</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6822,7 +6860,7 @@
         <v>471</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6833,7 +6871,7 @@
         <v>473</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6844,7 +6882,7 @@
         <v>475</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6855,7 +6893,7 @@
         <v>477</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6866,7 +6904,7 @@
         <v>479</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6877,7 +6915,7 @@
         <v>481</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6888,7 +6926,7 @@
         <v>483</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6899,7 +6937,7 @@
         <v>485</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6910,7 +6948,7 @@
         <v>487</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6921,7 +6959,7 @@
         <v>489</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6932,7 +6970,7 @@
         <v>491</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6943,7 +6981,7 @@
         <v>493</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6976,7 +7014,7 @@
         <v>499</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6987,7 +7025,7 @@
         <v>501</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7020,7 +7058,7 @@
         <v>507</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7031,7 +7069,7 @@
         <v>509</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7042,7 +7080,7 @@
         <v>439</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7053,7 +7091,7 @@
         <v>441</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7064,7 +7102,7 @@
         <v>443</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7075,7 +7113,7 @@
         <v>445</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7086,7 +7124,7 @@
         <v>447</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7097,7 +7135,7 @@
         <v>449</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7108,7 +7146,7 @@
         <v>451</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7119,7 +7157,7 @@
         <v>453</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7130,7 +7168,7 @@
         <v>455</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7141,7 +7179,7 @@
         <v>457</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7152,7 +7190,7 @@
         <v>459</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7163,7 +7201,7 @@
         <v>461</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7174,7 +7212,7 @@
         <v>463</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7185,7 +7223,7 @@
         <v>465</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7196,7 +7234,7 @@
         <v>467</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7207,7 +7245,7 @@
         <v>469</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7218,7 +7256,7 @@
         <v>471</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7229,7 +7267,7 @@
         <v>473</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7240,7 +7278,7 @@
         <v>475</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7251,7 +7289,7 @@
         <v>477</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7262,7 +7300,7 @@
         <v>479</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7273,7 +7311,7 @@
         <v>481</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7284,7 +7322,7 @@
         <v>483</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7295,7 +7333,7 @@
         <v>485</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7306,7 +7344,7 @@
         <v>487</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7317,7 +7355,7 @@
         <v>489</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7328,7 +7366,7 @@
         <v>491</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7339,7 +7377,7 @@
         <v>493</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7372,7 +7410,7 @@
         <v>499</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7383,7 +7421,7 @@
         <v>501</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7394,7 +7432,7 @@
         <v>503</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7416,7 +7454,7 @@
         <v>507</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7427,7 +7465,7 @@
         <v>509</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7438,7 +7476,7 @@
         <v>547</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7449,7 +7487,7 @@
         <v>547</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7460,7 +7498,7 @@
         <v>547</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7471,13 +7509,12 @@
         <v>547</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" s="5" t="str">
-        <f>"NEW至尊"&amp;I428</f>
-        <v>NEW至尊</v>
+      <c r="A428" s="5" t="s">
+        <v>781</v>
       </c>
       <c r="B428" s="5" t="s">
         <v>551</v>
@@ -7487,9 +7524,8 @@
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="5" t="str">
-        <f>"NEW至尊"&amp;I429</f>
-        <v>NEW至尊</v>
+      <c r="A429" s="5" t="s">
+        <v>782</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>551</v>
@@ -7499,9 +7535,8 @@
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" s="5" t="str">
-        <f>"NEW至尊"&amp;I430</f>
-        <v>NEW至尊</v>
+      <c r="A430" s="5" t="s">
+        <v>783</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>551</v>
@@ -7511,9 +7546,8 @@
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="5" t="str">
-        <f>"NEW至尊"&amp;I431</f>
-        <v>NEW至尊</v>
+      <c r="A431" s="5" t="s">
+        <v>784</v>
       </c>
       <c r="B431" s="5" t="s">
         <v>551</v>
@@ -7523,9 +7557,8 @@
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" s="5" t="str">
-        <f>"NEW至尊"&amp;I432</f>
-        <v>NEW至尊</v>
+      <c r="A432" s="5" t="s">
+        <v>785</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>551</v>
@@ -7542,7 +7575,7 @@
         <v>553</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7553,7 +7586,7 @@
         <v>553</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7564,7 +7597,7 @@
         <v>556</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7575,7 +7608,7 @@
         <v>556</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7586,7 +7619,7 @@
         <v>559</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7597,7 +7630,7 @@
         <v>559</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7608,7 +7641,7 @@
         <v>562</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7619,7 +7652,7 @@
         <v>562</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7630,7 +7663,7 @@
         <v>562</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7641,7 +7674,7 @@
         <v>562</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7652,7 +7685,7 @@
         <v>567</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7663,7 +7696,7 @@
         <v>567</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7674,7 +7707,7 @@
         <v>567</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7685,7 +7718,7 @@
         <v>567</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7751,7 +7784,7 @@
         <v>578</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7762,7 +7795,7 @@
         <v>578</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7773,7 +7806,7 @@
         <v>578</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7784,7 +7817,7 @@
         <v>578</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7795,7 +7828,7 @@
         <v>583</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7806,7 +7839,7 @@
         <v>583</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7817,7 +7850,7 @@
         <v>583</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7828,7 +7861,7 @@
         <v>583</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7883,7 +7916,7 @@
         <v>593</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7894,7 +7927,7 @@
         <v>593</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7905,7 +7938,7 @@
         <v>593</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7916,7 +7949,7 @@
         <v>593</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7927,7 +7960,7 @@
         <v>296</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7938,7 +7971,7 @@
         <v>296</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7949,7 +7982,7 @@
         <v>296</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7960,7 +7993,7 @@
         <v>296</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7971,7 +8004,7 @@
         <v>602</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7982,7 +8015,7 @@
         <v>602</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7993,7 +8026,7 @@
         <v>602</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8004,7 +8037,7 @@
         <v>602</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8015,7 +8048,7 @@
         <v>607</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8026,7 +8059,7 @@
         <v>607</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8037,7 +8070,7 @@
         <v>607</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8048,7 +8081,7 @@
         <v>607</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8191,7 +8224,7 @@
         <v>624</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8202,7 +8235,7 @@
         <v>624</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8213,7 +8246,7 @@
         <v>624</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8224,7 +8257,7 @@
         <v>624</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8235,7 +8268,7 @@
         <v>629</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8246,7 +8279,7 @@
         <v>629</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8257,7 +8290,7 @@
         <v>629</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8268,7 +8301,7 @@
         <v>629</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8279,7 +8312,7 @@
         <v>634</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8290,7 +8323,7 @@
         <v>634</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8301,7 +8334,7 @@
         <v>634</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8312,13 +8345,12 @@
         <v>634</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" s="5" t="str">
-        <f t="shared" ref="A504:A510" si="0">"NEW至尊"&amp;I504</f>
-        <v>NEW至尊</v>
+      <c r="A504" s="5" t="s">
+        <v>786</v>
       </c>
       <c r="B504" s="5" t="s">
         <v>551</v>
@@ -8328,9 +8360,8 @@
       </c>
     </row>
     <row r="505" spans="1:3">
-      <c r="A505" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NEW至尊</v>
+      <c r="A505" s="5" t="s">
+        <v>787</v>
       </c>
       <c r="B505" s="5" t="s">
         <v>551</v>
@@ -8340,9 +8371,8 @@
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NEW至尊</v>
+      <c r="A506" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="B506" s="5" t="s">
         <v>551</v>
@@ -8352,9 +8382,8 @@
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NEW至尊</v>
+      <c r="A507" s="5" t="s">
+        <v>789</v>
       </c>
       <c r="B507" s="5" t="s">
         <v>551</v>
@@ -8364,9 +8393,8 @@
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="A508" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NEW至尊</v>
+      <c r="A508" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="B508" s="5" t="s">
         <v>551</v>
@@ -8376,9 +8404,8 @@
       </c>
     </row>
     <row r="509" spans="1:3">
-      <c r="A509" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NEW至尊</v>
+      <c r="A509" s="5" t="s">
+        <v>791</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>551</v>
@@ -8388,9 +8415,8 @@
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="A510" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NEW至尊</v>
+      <c r="A510" s="5" t="s">
+        <v>792</v>
       </c>
       <c r="B510" s="5" t="s">
         <v>551</v>
